--- a/data/trans_camb/P36_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P36_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>3,13</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2,8</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2,57</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>0,03</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-0,03</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,25</t>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,24</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>3,68</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>2,87</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 1,24</t>
+          <t>-3,89; 1,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 1,45</t>
+          <t>-3,7; 1,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 2,14</t>
+          <t>-1,4; 4,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 1,9</t>
+          <t>1,82; 7,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 1,3</t>
+          <t>0,16; 5,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 1,21</t>
+          <t>-1,14; 1,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 1,3</t>
+          <t>-1,63; 1,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 0,95</t>
+          <t>-0,75; 2,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 1,36</t>
+          <t>0,86; 4,66</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,81; 4,62</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-1,42; 1,09</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-1,67; 0,89</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-0,28; 2,66</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>2,05; 5,48</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1,11; 4,6</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-7,27%</t>
+          <t>-18,07%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-5,42%</t>
+          <t>-14,96%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>29,09%</t>
+          <t>88,24%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>31,42%</t>
+          <t>121,26%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>61,12%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-1,34%</t>
+          <t>23,72%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11,4%</t>
+          <t>-3,81%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-2,02%</t>
+          <t>47,97%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>14,92%</t>
+          <t>116,56%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>97,55%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1,59%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-9,75%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>69,24%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>121,35%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>74,41%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-82,02; 148,47</t>
+          <t>-83,13; 160,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-77,81; 175,87</t>
+          <t>-83,43; 137,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-70,02; 252,53</t>
+          <t>-53,11; 427,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-45,3; 223,82</t>
+          <t>32,91; 283,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-60,58; 139,44</t>
+          <t>0,53; 162,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-62,68; 158,13</t>
+          <t>-50,36; 199,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-45,41; 122,56</t>
+          <t>-65,77; 117,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-58,13; 90,96</t>
+          <t>-38,46; 247,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-48,69; 118,41</t>
+          <t>21,87; 315,31</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>23,45; 249,37</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-52,47; 103,65</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-58,8; 81,09</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-17,46; 219,63</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>48,49; 233,21</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>22,49; 146,92</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,02</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>5,37</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>1,55</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,82</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>3,53</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2,84</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 2,59</t>
+          <t>-2,6; 2,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 2,01</t>
+          <t>-2,73; 1,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,47; -0,54</t>
+          <t>-3,62; 0,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,02</t>
+          <t>2,52; 9,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,96</t>
+          <t>1,22; 8,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,44</t>
+          <t>0,31; 2,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 2,08</t>
+          <t>0,85; 3,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 1,94</t>
+          <t>0,82; 3,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 1,25</t>
+          <t>-0,8; 5,06</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-2,25; 4,5</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-0,7; 1,84</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-0,54; 2,09</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-0,78; 1,75</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1,47; 5,88</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,42; 5,47</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>12,25%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,38%</t>
+          <t>-5,09%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-84,44%</t>
+          <t>-41,57%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>369,75%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>215,74%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>61,62%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>68,86%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>83,97%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>33,66%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>51,19%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>66,98%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>35,03%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>214,13%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>121,46%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-61,28; 197,6</t>
+          <t>-67,91; 176,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-67,15; 174,0</t>
+          <t>-65,57; 172,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 94,52</t>
+          <t>-84,53; 50,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>92,82; 1231,41</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>14,13; 962,69</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="I11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="J11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-37,56; 311,74</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-37,07; 315,06</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-80,76; 208,31</t>
+          <t>-42,05; 528,98</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-59,67; 431,07</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-40,34; 277,19</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-40,11; 309,01</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-44,99; 250,92</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>51,97; 512,06</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>6,0; 371,36</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,44</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,33</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>-0,43</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,67</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-1,41</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-0,43</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-1,6</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,7</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,4</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,83; -0,6</t>
+          <t>-7,33; -0,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 0,72</t>
+          <t>-6,44; 0,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-3,93; 5,72</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-3,01; 1,55</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 4,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-3,33; 1,82</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-2,45; 3,81</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-3,18; 2,19</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-3,8; -0,09</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-2,79; 1,6</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-4,14; 0,04</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-3,07; 1,44</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-2,27; 3,25</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1175,40 +1523,70 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-70,76%</t>
+          <t>-74,92%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>34,75%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-25,56%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>69,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>-28,65%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>44,63%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-11,15%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-75,16%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-22,8%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-75,53%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-32,89%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>18,86%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1233,35 +1611,65 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="I15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 261,49</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 90,93</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-89,94; 275,76</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-74,45; 396,47</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>2,72</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2,18</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,82</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>3,93</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>2,85</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 0,97</t>
+          <t>-2,03; 0,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 0,87</t>
+          <t>-2,21; 0,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 1,11</t>
+          <t>-1,15; 2,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 1,43</t>
+          <t>2,98; 7,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 1,62</t>
+          <t>1,15; 6,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 1,75</t>
+          <t>-0,36; 1,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 0,89</t>
+          <t>-0,17; 1,58</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 0,99</t>
+          <t>0,1; 2,08</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 1,06</t>
+          <t>1,3; 4,23</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0,61; 3,88</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-0,8; 0,82</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-0,77; 0,91</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,08; 1,77</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>2,76; 5,34</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1,35; 4,42</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-8,24%</t>
+          <t>-16,58%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-13,82%</t>
+          <t>-19,17%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-12,57%</t>
+          <t>23,6%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>59,43%</t>
+          <t>181,99%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>81,01%</t>
+          <t>79,79%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>79,04%</t>
+          <t>48,96%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>71,87%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>16,24%</t>
+          <t>110,06%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>16,63%</t>
+          <t>131,94%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>83,36%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>4,1%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>9,28%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>50,77%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>161,98%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>81,43%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-58,36; 72,7</t>
+          <t>-60,29; 60,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-62,04; 69,05</t>
+          <t>-65,55; 49,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-58,36; 81,43</t>
+          <t>-38,97; 130,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-27,55; 248,65</t>
+          <t>73,95; 337,64</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,97; 250,09</t>
+          <t>15,4; 195,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-18,83; 287,66</t>
+          <t>-29,67; 239,82</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-34,98; 81,87</t>
+          <t>-15,54; 265,73</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-36,27; 90,08</t>
+          <t>-8,89; 326,72</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-37,28; 94,37</t>
+          <t>44,09; 280,93</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>18,36; 197,44</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-38,47; 71,47</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-34,15; 78,58</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-7,88; 150,95</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>93,68; 263,89</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>31,2; 148,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
